--- a/FinTech/PYPL_MODEL.xlsx
+++ b/FinTech/PYPL_MODEL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Models\FinTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43110365-5D9F-4570-957E-359245C44DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3A7AF0-6558-47DA-8ABD-29F52C5E513E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="152">
   <si>
     <t>Price</t>
   </si>
@@ -309,9 +309,6 @@
     <t>International Net Revenues</t>
   </si>
   <si>
-    <t>1.14-1.18 EPS</t>
-  </si>
-  <si>
     <t>Tranche</t>
   </si>
   <si>
@@ -520,6 +517,18 @@
   </si>
   <si>
     <t>Q32019</t>
+  </si>
+  <si>
+    <t>Repurchased 21 million shares</t>
+  </si>
+  <si>
+    <t>Hit Guidance</t>
+  </si>
+  <si>
+    <t>1.23-1.27 GAAP EPS</t>
+  </si>
+  <si>
+    <t>No Big Changes as of Q32025</t>
   </si>
 </sst>
 </file>
@@ -530,13 +539,19 @@
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -715,69 +730,68 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1117,7 +1131,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1134,7 +1148,7 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="34" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1148,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>69.650000000000006</v>
+        <v>60.29</v>
       </c>
       <c r="C4" s="2">
-        <v>45887</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1159,10 +1173,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>993</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>935</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1171,7 +1185,7 @@
       </c>
       <c r="B6" s="1">
         <f>B4*B5</f>
-        <v>69162.450000000012</v>
+        <v>56371.15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1179,7 +1193,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="1">
-        <v>1000</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1187,13 +1201,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>1270</v>
+        <v>1217</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="1">
-        <v>10.48</v>
+        <v>11.49</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1202,68 +1216,68 @@
       </c>
       <c r="B9" s="1">
         <f>B6-B7+B8</f>
-        <v>69432.450000000012</v>
+        <v>56512.15</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="1">
-        <v>21.04</v>
+        <v>21.46</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="34" t="s">
         <v>61</v>
       </c>
       <c r="E10" s="1">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="34" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="1">
-        <v>14.93</v>
+        <v>12.61</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="34" t="s">
         <v>56</v>
       </c>
       <c r="B12" s="1">
-        <v>14.26</v>
+        <v>12.84</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="34" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="1">
-        <v>2.08</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="34" t="s">
         <v>58</v>
       </c>
       <c r="B14" s="1">
-        <v>3.31</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="34" t="s">
         <v>59</v>
       </c>
       <c r="B15" s="1">
-        <v>10.72</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="37">
+      <c r="B16" s="35">
         <v>0.6</v>
       </c>
     </row>
@@ -1277,9 +1291,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E38C8F-3B6A-4584-925C-61BD108C4B76}">
   <dimension ref="A1:AJ86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D43" sqref="D43"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AG40" sqref="AG40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1293,7 +1307,7 @@
     <col min="24" max="24" width="18.85546875" style="1" customWidth="1"/>
     <col min="25" max="25" width="14.85546875" style="1" customWidth="1"/>
     <col min="26" max="26" width="15" style="1" customWidth="1"/>
-    <col min="27" max="27" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="16384" width="9.140625" style="1"/>
@@ -1311,11 +1325,11 @@
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
-      <c r="D2" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="E2" s="48" t="s">
+      <c r="D2" s="42" t="s">
         <v>147</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>146</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>51</v>
@@ -1395,11 +1409,11 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36">
         <v>178670</v>
       </c>
       <c r="E3" s="27">
@@ -1471,103 +1485,110 @@
       <c r="AA3" s="1">
         <v>443547</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="40" t="s">
+      <c r="AB3" s="1">
+        <v>458088</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40" t="s">
+      <c r="C4" s="38"/>
+      <c r="D4" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="37">
         <f t="shared" ref="H4" si="0">(H3/D3) - 1</f>
         <v>0.3807074494878826</v>
       </c>
-      <c r="I4" s="39">
+      <c r="I4" s="37">
         <f t="shared" ref="I4" si="1">(I3/E3) - 1</f>
         <v>0.38950071212212389</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J4" s="37">
         <f t="shared" ref="J4:Z4" si="2">(J3/F3) - 1</f>
         <v>0.49788263445402414</v>
       </c>
-      <c r="K4" s="39">
+      <c r="K4" s="37">
         <f t="shared" si="2"/>
         <v>0.40256436853665023</v>
       </c>
-      <c r="L4" s="39">
+      <c r="L4" s="37">
         <f t="shared" si="2"/>
         <v>0.2562679627550255</v>
       </c>
-      <c r="M4" s="39">
+      <c r="M4" s="37">
         <f t="shared" si="2"/>
         <v>0.22542155107697637</v>
       </c>
-      <c r="N4" s="39">
+      <c r="N4" s="37">
         <f t="shared" si="2"/>
         <v>0.13149201077608108</v>
       </c>
-      <c r="O4" s="39">
+      <c r="O4" s="37">
         <f t="shared" si="2"/>
         <v>9.2603668261562966E-2</v>
       </c>
-      <c r="P4" s="39">
+      <c r="P4" s="37">
         <f t="shared" si="2"/>
         <v>8.7325352521699928E-2</v>
       </c>
-      <c r="Q4" s="39">
+      <c r="Q4" s="37">
         <f t="shared" si="2"/>
         <v>5.2566783494831126E-2</v>
       </c>
-      <c r="R4" s="39">
+      <c r="R4" s="37">
         <f t="shared" si="2"/>
         <v>9.7612553060396845E-2</v>
       </c>
-      <c r="S4" s="39">
+      <c r="S4" s="37">
         <f t="shared" si="2"/>
         <v>0.10814588967924399</v>
       </c>
-      <c r="T4" s="39">
+      <c r="T4" s="37">
         <f t="shared" si="2"/>
         <v>0.15054025099933832</v>
       </c>
-      <c r="U4" s="39">
+      <c r="U4" s="37">
         <f t="shared" si="2"/>
         <v>0.14677456362730767</v>
       </c>
-      <c r="V4" s="39">
+      <c r="V4" s="37">
         <f t="shared" si="2"/>
         <v>0.1392126552856352</v>
       </c>
-      <c r="W4" s="39">
+      <c r="W4" s="37">
         <f t="shared" si="2"/>
         <v>0.10696397176380601</v>
       </c>
-      <c r="X4" s="39">
+      <c r="X4" s="37">
         <f t="shared" si="2"/>
         <v>9.0120995303081486E-2</v>
       </c>
-      <c r="Y4" s="39">
+      <c r="Y4" s="37">
         <f t="shared" si="2"/>
         <v>6.8330437837943458E-2</v>
       </c>
-      <c r="Z4" s="39">
+      <c r="Z4" s="37">
         <f t="shared" si="2"/>
         <v>3.3051057297083242E-2</v>
       </c>
-      <c r="AA4" s="39">
+      <c r="AA4" s="37">
         <f>(AA3/W3) - 1</f>
         <v>6.4136521326059182E-2</v>
+      </c>
+      <c r="AB4" s="37">
+        <f>(AB3/X3) - 1</f>
+        <v>8.387023502215829E-2</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
@@ -1668,16 +1689,18 @@
       <c r="AA8" s="4">
         <v>8288</v>
       </c>
-      <c r="AB8" s="4"/>
+      <c r="AB8" s="4">
+        <v>8417</v>
+      </c>
       <c r="AC8" s="4"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38">
+      <c r="C9" s="36"/>
+      <c r="D9" s="36">
         <v>1701</v>
       </c>
       <c r="E9" s="16">
@@ -1749,14 +1772,17 @@
       <c r="AA9" s="16">
         <v>3968</v>
       </c>
+      <c r="AB9" s="1">
+        <v>4063</v>
+      </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38">
+      <c r="C10" s="36"/>
+      <c r="D10" s="36">
         <v>340</v>
       </c>
       <c r="E10" s="16">
@@ -1828,14 +1854,17 @@
       <c r="AA10" s="16">
         <v>476</v>
       </c>
+      <c r="AB10" s="1">
+        <v>483</v>
+      </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38">
+      <c r="C11" s="36"/>
+      <c r="D11" s="36">
         <v>390</v>
       </c>
       <c r="E11" s="16">
@@ -1907,14 +1936,17 @@
       <c r="AA11" s="16">
         <v>413</v>
       </c>
+      <c r="AB11" s="1">
+        <v>447</v>
+      </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38">
+      <c r="C12" s="36"/>
+      <c r="D12" s="36">
         <v>316</v>
       </c>
       <c r="E12" s="16">
@@ -1986,14 +2018,17 @@
       <c r="AA12" s="16">
         <v>583</v>
       </c>
+      <c r="AB12" s="1">
+        <v>521</v>
+      </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38">
+      <c r="C13" s="36"/>
+      <c r="D13" s="36">
         <v>533</v>
       </c>
       <c r="E13" s="16">
@@ -2065,14 +2100,17 @@
       <c r="AA13" s="16">
         <v>767</v>
       </c>
+      <c r="AB13" s="1">
+        <v>801</v>
+      </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38">
+      <c r="C14" s="36"/>
+      <c r="D14" s="36">
         <v>401</v>
       </c>
       <c r="E14" s="16">
@@ -2144,14 +2182,17 @@
       <c r="AA14" s="16">
         <v>461</v>
       </c>
+      <c r="AB14" s="1">
+        <v>513</v>
+      </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38">
+      <c r="C15" s="36"/>
+      <c r="D15" s="36">
         <v>0</v>
       </c>
       <c r="E15" s="27">
@@ -2222,6 +2263,9 @@
       </c>
       <c r="AA15" s="28">
         <v>116</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:30" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2243,7 +2287,7 @@
         <v>398</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" ref="G16:AA16" si="4">G8-SUM(G9:G15)</f>
+        <f t="shared" ref="G16:AB16" si="4">G8-SUM(G9:G15)</f>
         <v>951</v>
       </c>
       <c r="H16" s="4">
@@ -2326,8 +2370,12 @@
         <f t="shared" si="4"/>
         <v>1504</v>
       </c>
-    </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="4">
+        <f t="shared" si="4"/>
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>40</v>
       </c>
@@ -2403,8 +2451,11 @@
       <c r="AA17" s="1">
         <v>1529</v>
       </c>
-    </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="1">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
@@ -2480,8 +2531,11 @@
       <c r="AA18" s="1">
         <v>268</v>
       </c>
-    </row>
-    <row r="19" spans="2:27" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB18" s="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>11</v>
       </c>
@@ -2581,8 +2635,12 @@
         <f>AA17-AA18</f>
         <v>1261</v>
       </c>
-    </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="5">
+        <f>AB17-AB18</f>
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
@@ -2631,7 +2689,7 @@
       <c r="R20" s="29">
         <v>0.7</v>
       </c>
-      <c r="S20" s="46">
+      <c r="S20" s="41">
         <v>0.93</v>
       </c>
       <c r="T20" s="29">
@@ -2658,8 +2716,11 @@
       <c r="AA20" s="29">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="1">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>32</v>
       </c>
@@ -2735,8 +2796,11 @@
       <c r="AA21" s="1">
         <v>1.29</v>
       </c>
-    </row>
-    <row r="23" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB21" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
         <v>38</v>
       </c>
@@ -2761,79 +2825,83 @@
         <v>0.23281596452328168</v>
       </c>
       <c r="J23" s="33">
-        <f>(J8/F8) - 1</f>
+        <f t="shared" ref="J23:AB23" si="9">(J8/F8) - 1</f>
         <v>0.30640970116933741</v>
       </c>
       <c r="K23" s="33">
-        <f>(K8/G8) - 1</f>
+        <f t="shared" si="9"/>
         <v>0.18570613951720216</v>
       </c>
       <c r="L23" s="33">
-        <f>(L8/H8) - 1</f>
+        <f t="shared" si="9"/>
         <v>0.13244183916468222</v>
       </c>
       <c r="M23" s="33">
-        <f>(M8/I8) - 1</f>
+        <f t="shared" si="9"/>
         <v>0.13113145846958796</v>
       </c>
       <c r="N23" s="33">
-        <f>(N8/J8) - 1</f>
+        <f t="shared" si="9"/>
         <v>7.458975634012921E-2</v>
       </c>
       <c r="O23" s="33">
-        <f>(O8/K8) - 1</f>
+        <f t="shared" si="9"/>
         <v>9.105482526450781E-2</v>
       </c>
       <c r="P23" s="33">
-        <f>(P8/L8) - 1</f>
+        <f t="shared" si="9"/>
         <v>0.10740860562924626</v>
       </c>
       <c r="Q23" s="33">
-        <f>(Q8/M8) - 1</f>
+        <f t="shared" si="9"/>
         <v>6.7215958369470918E-2</v>
       </c>
       <c r="R23" s="33">
-        <f>(R8/N8) - 1</f>
+        <f t="shared" si="9"/>
         <v>8.5917013728212144E-2</v>
       </c>
       <c r="S23" s="33">
-        <f>(S8/O8) - 1</f>
+        <f t="shared" si="9"/>
         <v>7.0672935645019086E-2</v>
       </c>
       <c r="T23" s="33">
-        <f>(T8/P8) - 1</f>
+        <f t="shared" si="9"/>
         <v>8.3552439380660148E-2</v>
       </c>
       <c r="U23" s="33">
-        <f>(U8/Q8) - 1</f>
+        <f t="shared" si="9"/>
         <v>8.7091968034674228E-2</v>
       </c>
       <c r="V23" s="33">
-        <f>(V8/R8) - 1</f>
+        <f t="shared" si="9"/>
         <v>9.3607954545454453E-2</v>
       </c>
       <c r="W23" s="33">
-        <f>(W8/S8) - 1</f>
+        <f t="shared" si="9"/>
         <v>8.2063949499108002E-2</v>
       </c>
       <c r="X23" s="33">
-        <f>(X8/T8) - 1</f>
+        <f t="shared" si="9"/>
         <v>5.7832299811269916E-2</v>
       </c>
       <c r="Y23" s="33">
-        <f>(Y8/U8) - 1</f>
+        <f t="shared" si="9"/>
         <v>4.2362322452030865E-2</v>
       </c>
       <c r="Z23" s="33">
-        <f>(Z8/V8) - 1</f>
+        <f t="shared" si="9"/>
         <v>1.1949603844655154E-2</v>
       </c>
       <c r="AA23" s="33">
-        <f>(AA8/W8) - 1</f>
+        <f t="shared" si="9"/>
         <v>5.1109701965757814E-2</v>
       </c>
-    </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="33">
+        <f t="shared" si="9"/>
+        <v>7.2639225181598155E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>39</v>
       </c>
@@ -2841,99 +2909,103 @@
         <v>42</v>
       </c>
       <c r="E24" s="6">
-        <f t="shared" ref="E24:F24" si="9" xml:space="preserve"> (E8/D8) - 1</f>
+        <f t="shared" ref="E24:F24" si="10" xml:space="preserve"> (E8/D8) - 1</f>
         <v>0.13316582914572872</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-6.9139286434186653E-2</v>
       </c>
       <c r="G24" s="6">
-        <f xml:space="preserve"> (G8/F8) - 1</f>
+        <f t="shared" ref="G24:AB24" si="11" xml:space="preserve"> (G8/F8) - 1</f>
         <v>0.13923776526634901</v>
       </c>
       <c r="H24" s="6">
-        <f xml:space="preserve"> (H8/G8) - 1</f>
+        <f t="shared" si="11"/>
         <v>3.7635430526515856E-2</v>
       </c>
       <c r="I24" s="6">
-        <f xml:space="preserve"> (I8/H8) - 1</f>
+        <f t="shared" si="11"/>
         <v>0.12035171276790613</v>
       </c>
       <c r="J24" s="6">
-        <f xml:space="preserve"> (J8/I8) - 1</f>
+        <f t="shared" si="11"/>
         <v>-1.3570961412687987E-2</v>
       </c>
       <c r="K24" s="6">
-        <f xml:space="preserve"> (K8/J8) - 1</f>
+        <f t="shared" si="11"/>
         <v>3.3979777888281104E-2</v>
       </c>
       <c r="L24" s="6">
-        <f xml:space="preserve"> (L8/K8) - 1</f>
+        <f t="shared" si="11"/>
         <v>-8.9772362936838546E-3</v>
       </c>
       <c r="M24" s="6">
-        <f xml:space="preserve"> (M8/L8) - 1</f>
+        <f t="shared" si="11"/>
         <v>0.11905532190229695</v>
       </c>
       <c r="N24" s="6">
-        <f xml:space="preserve"> (N8/M8) - 1</f>
+        <f t="shared" si="11"/>
         <v>-6.2879444926279282E-2</v>
       </c>
       <c r="O24" s="6">
-        <f xml:space="preserve"> (O8/N8) - 1</f>
+        <f t="shared" si="11"/>
         <v>4.9822612987814319E-2</v>
       </c>
       <c r="P24" s="6">
-        <f xml:space="preserve"> (P8/O8) - 1</f>
+        <f t="shared" si="11"/>
         <v>5.8771672054069857E-3</v>
       </c>
       <c r="Q24" s="6">
-        <f xml:space="preserve"> (Q8/P8) - 1</f>
+        <f t="shared" si="11"/>
         <v>7.8439964943032514E-2</v>
       </c>
       <c r="R24" s="6">
-        <f xml:space="preserve"> (R8/Q8) - 1</f>
+        <f t="shared" si="11"/>
         <v>-4.6458079371529237E-2</v>
       </c>
       <c r="S24" s="6">
-        <f xml:space="preserve"> (S8/R8) - 1</f>
+        <f t="shared" si="11"/>
         <v>3.5085227272727337E-2</v>
       </c>
       <c r="T24" s="6">
-        <f xml:space="preserve"> (T8/S8) - 1</f>
+        <f t="shared" si="11"/>
         <v>1.7977219706326375E-2</v>
       </c>
       <c r="U24" s="6">
-        <f xml:space="preserve"> (U8/T8) - 1</f>
+        <f t="shared" si="11"/>
         <v>8.1962793205715867E-2</v>
       </c>
       <c r="V24" s="6">
-        <f xml:space="preserve"> (V8/U8) - 1</f>
+        <f t="shared" si="11"/>
         <v>-4.0742586593570884E-2</v>
       </c>
       <c r="W24" s="6">
-        <f xml:space="preserve"> (W8/V8) - 1</f>
+        <f t="shared" si="11"/>
         <v>2.4158981685933334E-2</v>
       </c>
       <c r="X24" s="6">
-        <f xml:space="preserve"> (X8/W8) - 1</f>
+        <f t="shared" si="11"/>
         <v>-4.8192771084337727E-3</v>
       </c>
       <c r="Y24" s="6">
-        <f xml:space="preserve"> (Y8/X8) - 1</f>
+        <f t="shared" si="11"/>
         <v>6.6139926086402401E-2</v>
       </c>
       <c r="Z24" s="6">
-        <f xml:space="preserve"> (Z8/Y8) - 1</f>
+        <f t="shared" si="11"/>
         <v>-6.8730576141525224E-2</v>
       </c>
       <c r="AA24" s="6">
-        <f xml:space="preserve"> (AA8/Z8) - 1</f>
+        <f t="shared" si="11"/>
         <v>6.3791554357591984E-2</v>
       </c>
-    </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="6">
+        <f t="shared" si="11"/>
+        <v>1.5564671814671804E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
       <c r="P25" s="6"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
@@ -2946,87 +3018,91 @@
       <c r="Y25" s="7"/>
       <c r="Z25" s="6"/>
     </row>
-    <row r="26" spans="2:27" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="39" t="s">
+    <row r="26" spans="2:28" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="39">
+      <c r="D26" s="37">
         <v>0.159</v>
       </c>
-      <c r="E26" s="39">
+      <c r="E26" s="37">
         <v>0.161</v>
       </c>
-      <c r="F26" s="39">
+      <c r="F26" s="37">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="G26" s="39">
+      <c r="G26" s="37">
         <v>0.18099999999999999</v>
       </c>
-      <c r="H26" s="39">
+      <c r="H26" s="37">
         <v>0.17899999999999999</v>
       </c>
-      <c r="I26" s="39">
+      <c r="I26" s="37">
         <v>0.157</v>
       </c>
-      <c r="J26" s="39">
+      <c r="J26" s="37">
         <v>0.17299999999999999</v>
       </c>
-      <c r="K26" s="39">
+      <c r="K26" s="37">
         <v>0.18099999999999999</v>
       </c>
-      <c r="L26" s="39">
+      <c r="L26" s="37">
         <v>0.16900000000000001</v>
       </c>
-      <c r="M26" s="39">
+      <c r="M26" s="37">
         <v>0.152</v>
       </c>
-      <c r="N26" s="39">
+      <c r="N26" s="37">
         <v>0.11</v>
       </c>
-      <c r="O26" s="39">
+      <c r="O26" s="37">
         <v>0.112</v>
       </c>
-      <c r="P26" s="39">
+      <c r="P26" s="37">
         <v>0.16300000000000001</v>
       </c>
-      <c r="Q26" s="39">
+      <c r="Q26" s="37">
         <v>0.16800000000000001</v>
       </c>
-      <c r="R26" s="39">
+      <c r="R26" s="37">
         <v>0.14199999999999999</v>
       </c>
-      <c r="S26" s="39">
+      <c r="S26" s="37">
         <v>0.155</v>
       </c>
-      <c r="T26" s="39">
+      <c r="T26" s="37">
         <v>0.157</v>
       </c>
-      <c r="U26" s="39">
+      <c r="U26" s="37">
         <v>0.215</v>
       </c>
-      <c r="V26" s="39">
+      <c r="V26" s="37">
         <v>0.182</v>
       </c>
-      <c r="W26" s="39">
+      <c r="W26" s="37">
         <v>0.16800000000000001</v>
       </c>
-      <c r="X26" s="39">
+      <c r="X26" s="37">
         <v>0.17699999999999999</v>
       </c>
-      <c r="Y26" s="39">
+      <c r="Y26" s="37">
         <v>0.17199999999999999</v>
       </c>
-      <c r="Z26" s="39">
+      <c r="Z26" s="37">
         <v>0.20699999999999999</v>
       </c>
-      <c r="AA26" s="39">
+      <c r="AA26" s="37">
         <v>0.18099999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="37">
+        <v>0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.2">
       <c r="L27" s="6"/>
-    </row>
-    <row r="28" spans="2:27" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB27" s="37"/>
+    </row>
+    <row r="28" spans="2:28" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" s="30" t="s">
         <v>24</v>
       </c>
@@ -3103,8 +3179,11 @@
       <c r="AA28" s="8">
         <v>898</v>
       </c>
-    </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="8">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B29" s="27" t="s">
         <v>23</v>
       </c>
@@ -3181,98 +3260,101 @@
       <c r="AA29" s="1">
         <v>206</v>
       </c>
-    </row>
-    <row r="30" spans="2:27" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB29" s="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="30" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="30"/>
       <c r="D30" s="8">
-        <f t="shared" ref="D30:M30" si="10">D28-D29</f>
+        <f t="shared" ref="D30:M30" si="12">D28-D29</f>
         <v>1080</v>
       </c>
       <c r="E30" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>748</v>
       </c>
       <c r="F30" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1092</v>
       </c>
       <c r="G30" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1667</v>
       </c>
       <c r="H30" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1245</v>
       </c>
       <c r="I30" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1349</v>
       </c>
       <c r="J30" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1351</v>
       </c>
       <c r="K30" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1030</v>
       </c>
       <c r="L30" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1081</v>
       </c>
       <c r="M30" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1427</v>
       </c>
       <c r="N30" s="8">
-        <f t="shared" ref="N30:Y30" si="11">N28-N29</f>
+        <f t="shared" ref="N30:Y30" si="13">N28-N29</f>
         <v>1026</v>
       </c>
       <c r="O30" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1075</v>
       </c>
       <c r="P30" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1573</v>
       </c>
       <c r="Q30" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1433</v>
       </c>
       <c r="R30" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="S30" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-350</v>
       </c>
       <c r="T30" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1101</v>
       </c>
       <c r="U30" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2469</v>
       </c>
       <c r="V30" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1763</v>
       </c>
       <c r="W30" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1368</v>
       </c>
       <c r="X30" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1445</v>
       </c>
       <c r="Y30" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2191</v>
       </c>
       <c r="Z30" s="8">
@@ -3283,8 +3365,12 @@
         <f>AA28-AA29</f>
         <v>692</v>
       </c>
-    </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="8">
+        <f>AB28-AB29</f>
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
@@ -3296,7 +3382,7 @@
       <c r="U31" s="28"/>
       <c r="V31" s="28"/>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B32" s="27" t="s">
         <v>34</v>
       </c>
@@ -3314,75 +3400,75 @@
         <v>42</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" ref="H32" si="12">IF(D30=0,IF(H30=0,0,NA()),(H30-D30)/ABS(D30))</f>
+        <f t="shared" ref="H32" si="14">IF(D30=0,IF(H30=0,0,NA()),(H30-D30)/ABS(D30))</f>
         <v>0.15277777777777779</v>
       </c>
       <c r="I32" s="6">
-        <f t="shared" ref="I32" si="13">IF(E30=0,IF(I30=0,0,NA()),(I30-E30)/ABS(E30))</f>
+        <f t="shared" ref="I32" si="15">IF(E30=0,IF(I30=0,0,NA()),(I30-E30)/ABS(E30))</f>
         <v>0.803475935828877</v>
       </c>
       <c r="J32" s="6">
-        <f t="shared" ref="J32" si="14">IF(F30=0,IF(J30=0,0,NA()),(J30-F30)/ABS(F30))</f>
+        <f t="shared" ref="J32" si="16">IF(F30=0,IF(J30=0,0,NA()),(J30-F30)/ABS(F30))</f>
         <v>0.23717948717948717</v>
       </c>
       <c r="K32" s="6">
-        <f t="shared" ref="K32" si="15">IF(G30=0,IF(K30=0,0,NA()),(K30-G30)/ABS(G30))</f>
+        <f t="shared" ref="K32" si="17">IF(G30=0,IF(K30=0,0,NA()),(K30-G30)/ABS(G30))</f>
         <v>-0.38212357528494301</v>
       </c>
       <c r="L32" s="6">
-        <f t="shared" ref="L32" si="16">IF(H30=0,IF(L30=0,0,NA()),(L30-H30)/ABS(H30))</f>
+        <f t="shared" ref="L32" si="18">IF(H30=0,IF(L30=0,0,NA()),(L30-H30)/ABS(H30))</f>
         <v>-0.13172690763052208</v>
       </c>
       <c r="M32" s="6">
-        <f t="shared" ref="M32" si="17">IF(I30=0,IF(M30=0,0,NA()),(M30-I30)/ABS(I30))</f>
+        <f t="shared" ref="M32" si="19">IF(I30=0,IF(M30=0,0,NA()),(M30-I30)/ABS(I30))</f>
         <v>5.7820607857672353E-2</v>
       </c>
       <c r="N32" s="6">
-        <f t="shared" ref="N32" si="18">IF(J30=0,IF(N30=0,0,NA()),(N30-J30)/ABS(J30))</f>
+        <f t="shared" ref="N32" si="20">IF(J30=0,IF(N30=0,0,NA()),(N30-J30)/ABS(J30))</f>
         <v>-0.24056254626202814</v>
       </c>
       <c r="O32" s="6">
-        <f t="shared" ref="O32" si="19">IF(K30=0,IF(O30=0,0,NA()),(O30-K30)/ABS(K30))</f>
+        <f t="shared" ref="O32" si="21">IF(K30=0,IF(O30=0,0,NA()),(O30-K30)/ABS(K30))</f>
         <v>4.3689320388349516E-2</v>
       </c>
       <c r="P32" s="6">
-        <f t="shared" ref="P32" si="20">IF(L30=0,IF(P30=0,0,NA()),(P30-L30)/ABS(L30))</f>
+        <f t="shared" ref="P32" si="22">IF(L30=0,IF(P30=0,0,NA()),(P30-L30)/ABS(L30))</f>
         <v>0.45513413506012951</v>
       </c>
       <c r="Q32" s="6">
-        <f t="shared" ref="Q32" si="21">IF(M30=0,IF(Q30=0,0,NA()),(Q30-M30)/ABS(M30))</f>
+        <f t="shared" ref="Q32" si="23">IF(M30=0,IF(Q30=0,0,NA()),(Q30-M30)/ABS(M30))</f>
         <v>4.2046250875963564E-3</v>
       </c>
       <c r="R32" s="6">
-        <f t="shared" ref="R32:Y32" si="22">IF(N30=0,IF(R30=0,0,NA()),(R30-N30)/ABS(N30))</f>
+        <f t="shared" ref="R32:Y32" si="24">IF(N30=0,IF(R30=0,0,NA()),(R30-N30)/ABS(N30))</f>
         <v>-2.5341130604288498E-2</v>
       </c>
       <c r="S32" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-1.3255813953488371</v>
       </c>
       <c r="T32" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-0.3000635727908455</v>
       </c>
       <c r="U32" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.72295882763433361</v>
       </c>
       <c r="V32" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.76300000000000001</v>
       </c>
       <c r="W32" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4.9085714285714284</v>
       </c>
       <c r="X32" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.31244323342415986</v>
       </c>
       <c r="Y32" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-0.11259619279060348</v>
       </c>
       <c r="Z32" s="6">
@@ -3392,6 +3478,10 @@
       <c r="AA32" s="6">
         <f>IF(W30=0,IF(AA30=0,0,NA()),(AA30-W30)/ABS(W30))</f>
         <v>-0.49415204678362573</v>
+      </c>
+      <c r="AB32" s="6">
+        <f>IF(X30=0,IF(AB30=0,0,NA()),(AB30-X30)/ABS(X30))</f>
+        <v>0.18892733564013842</v>
       </c>
     </row>
     <row r="33" spans="2:36" x14ac:dyDescent="0.2">
@@ -3417,27 +3507,27 @@
       <c r="Z33" s="6"/>
       <c r="AA33" s="6"/>
     </row>
-    <row r="34" spans="2:36" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="42" t="s">
+    <row r="34" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B34" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42">
+      <c r="C34" s="34"/>
+      <c r="D34" s="34">
         <v>3955</v>
       </c>
-      <c r="E34" s="43">
+      <c r="E34" s="1">
         <v>4535</v>
       </c>
-      <c r="F34" s="43">
+      <c r="F34" s="1">
         <v>4215</v>
       </c>
-      <c r="G34" s="43">
+      <c r="G34" s="1">
         <v>4945</v>
       </c>
-      <c r="H34" s="43">
+      <c r="H34" s="1">
         <v>5076</v>
       </c>
-      <c r="I34" s="43">
+      <c r="I34" s="1">
         <v>5682</v>
       </c>
       <c r="J34" s="9">
@@ -3494,28 +3584,31 @@
       <c r="AA34" s="9">
         <v>7441</v>
       </c>
-    </row>
-    <row r="35" spans="2:36" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="42" t="s">
+      <c r="AB34" s="1">
+        <v>7552</v>
+      </c>
+    </row>
+    <row r="35" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B35" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42">
+      <c r="C35" s="34"/>
+      <c r="D35" s="34">
         <v>423</v>
       </c>
-      <c r="E35" s="43">
+      <c r="E35" s="1">
         <v>426</v>
       </c>
-      <c r="F35" s="43">
+      <c r="F35" s="1">
         <v>403</v>
       </c>
-      <c r="G35" s="43">
+      <c r="G35" s="1">
         <v>316</v>
       </c>
-      <c r="H35" s="43">
+      <c r="H35" s="1">
         <v>383</v>
       </c>
-      <c r="I35" s="43">
+      <c r="I35" s="1">
         <v>434</v>
       </c>
       <c r="J35" s="9">
@@ -3572,11 +3665,14 @@
       <c r="AA35" s="9">
         <v>847</v>
       </c>
-    </row>
-    <row r="36" spans="2:36" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
+      <c r="AB35" s="1">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="36" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
@@ -3596,27 +3692,27 @@
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
     </row>
-    <row r="37" spans="2:36" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="42" t="s">
+    <row r="37" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B37" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42">
+      <c r="C37" s="34"/>
+      <c r="D37" s="34">
         <v>2327</v>
       </c>
-      <c r="E37" s="43">
+      <c r="E37" s="1">
         <v>2606</v>
       </c>
-      <c r="F37" s="43">
+      <c r="F37" s="1">
         <v>2469</v>
       </c>
-      <c r="G37" s="43">
+      <c r="G37" s="1">
         <v>2651</v>
       </c>
-      <c r="H37" s="43">
+      <c r="H37" s="1">
         <v>2820</v>
       </c>
-      <c r="I37" s="43">
+      <c r="I37" s="1">
         <v>3073</v>
       </c>
       <c r="J37" s="9">
@@ -3673,28 +3769,31 @@
       <c r="AA37" s="9">
         <v>4709</v>
       </c>
-    </row>
-    <row r="38" spans="2:36" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="42" t="s">
+      <c r="AB37" s="1">
+        <v>4753</v>
+      </c>
+    </row>
+    <row r="38" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B38" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42">
+      <c r="C38" s="34"/>
+      <c r="D38" s="34">
         <v>2051</v>
       </c>
-      <c r="E38" s="43">
+      <c r="E38" s="1">
         <v>2355</v>
       </c>
-      <c r="F38" s="43">
+      <c r="F38" s="1">
         <v>2149</v>
       </c>
-      <c r="G38" s="43">
+      <c r="G38" s="1">
         <v>2610</v>
       </c>
-      <c r="H38" s="43">
+      <c r="H38" s="1">
         <v>2639</v>
       </c>
-      <c r="I38" s="43">
+      <c r="I38" s="1">
         <v>3043</v>
       </c>
       <c r="J38" s="9">
@@ -3751,11 +3850,14 @@
       <c r="AA38" s="9">
         <v>3579</v>
       </c>
-    </row>
-    <row r="39" spans="2:36" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
+      <c r="AB38" s="1">
+        <v>3664</v>
+      </c>
+    </row>
+    <row r="39" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
@@ -3775,27 +3877,27 @@
       <c r="Z39" s="9"/>
       <c r="AA39" s="9"/>
     </row>
-    <row r="40" spans="2:36" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="42" t="s">
+    <row r="40" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B40" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42">
+      <c r="C40" s="34"/>
+      <c r="D40" s="34">
         <v>295</v>
       </c>
-      <c r="E40" s="43">
+      <c r="E40" s="1">
         <v>305</v>
       </c>
-      <c r="F40" s="43">
+      <c r="F40" s="1">
         <v>325</v>
       </c>
-      <c r="G40" s="43">
+      <c r="G40" s="1">
         <v>346</v>
       </c>
-      <c r="H40" s="43">
+      <c r="H40" s="1">
         <v>361</v>
       </c>
-      <c r="I40" s="43">
+      <c r="I40" s="1">
         <v>377</v>
       </c>
       <c r="J40" s="9">
@@ -3852,28 +3954,31 @@
       <c r="AA40" s="9">
         <v>438</v>
       </c>
-    </row>
-    <row r="41" spans="2:36" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="42" t="s">
+      <c r="AB40" s="1">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="41" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B41" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42">
+      <c r="C41" s="34"/>
+      <c r="D41" s="34">
         <v>3090</v>
       </c>
-      <c r="E41" s="43">
+      <c r="E41" s="1">
         <v>3461</v>
       </c>
-      <c r="F41" s="43">
+      <c r="F41" s="1">
         <v>3261</v>
       </c>
-      <c r="G41" s="43">
+      <c r="G41" s="1">
         <v>3742</v>
       </c>
-      <c r="H41" s="43">
+      <c r="H41" s="1">
         <v>4013</v>
       </c>
-      <c r="I41" s="43">
+      <c r="I41" s="1">
         <v>4408</v>
       </c>
       <c r="J41" s="9">
@@ -3930,83 +4035,89 @@
       <c r="AA41" s="9">
         <v>6226</v>
       </c>
-    </row>
-    <row r="42" spans="2:36" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="42" t="s">
+      <c r="AB41" s="1">
+        <v>6331</v>
+      </c>
+    </row>
+    <row r="42" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B42" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42">
+      <c r="C42" s="34"/>
+      <c r="D42" s="34">
         <v>39.799999999999997</v>
       </c>
-      <c r="E42" s="43">
+      <c r="E42" s="1">
         <v>40.6</v>
       </c>
-      <c r="F42" s="43">
+      <c r="F42" s="1">
         <v>39.4</v>
       </c>
-      <c r="G42" s="43">
+      <c r="G42" s="1">
         <v>39.200000000000003</v>
       </c>
-      <c r="H42" s="43">
+      <c r="H42" s="1">
         <v>40.1</v>
       </c>
-      <c r="I42" s="43">
+      <c r="I42" s="1">
         <v>40.9</v>
       </c>
-      <c r="J42" s="43">
+      <c r="J42" s="1">
         <v>42.2</v>
       </c>
-      <c r="K42" s="43">
+      <c r="K42" s="1">
         <v>43.5</v>
       </c>
-      <c r="L42" s="43">
+      <c r="L42" s="1">
         <v>44.2</v>
       </c>
-      <c r="M42" s="43">
+      <c r="M42" s="1">
         <v>45.4</v>
       </c>
-      <c r="N42" s="43">
+      <c r="N42" s="1">
         <v>47</v>
       </c>
-      <c r="O42" s="43">
+      <c r="O42" s="1">
         <v>48.7</v>
       </c>
-      <c r="P42" s="43">
+      <c r="P42" s="1">
         <v>50.1</v>
       </c>
-      <c r="Q42" s="43">
+      <c r="Q42" s="1">
         <v>51.4</v>
       </c>
-      <c r="R42" s="43">
+      <c r="R42" s="1">
         <v>53.1</v>
       </c>
-      <c r="S42" s="43">
+      <c r="S42" s="1">
         <v>54.7</v>
       </c>
-      <c r="T42" s="43">
+      <c r="T42" s="1">
         <v>56.6</v>
       </c>
-      <c r="U42" s="43">
+      <c r="U42" s="1">
         <v>58.7</v>
       </c>
-      <c r="V42" s="43">
+      <c r="V42" s="1">
         <v>60</v>
       </c>
-      <c r="W42" s="43">
+      <c r="W42" s="1">
         <v>60.9</v>
       </c>
-      <c r="X42" s="43">
+      <c r="X42" s="1">
         <v>61.4</v>
       </c>
-      <c r="Y42" s="43">
+      <c r="Y42" s="1">
         <v>60.6</v>
       </c>
-      <c r="Z42" s="43">
+      <c r="Z42" s="1">
         <v>59.4</v>
       </c>
-      <c r="AA42" s="43">
+      <c r="AA42" s="1">
         <v>58.3</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>57.6</v>
       </c>
     </row>
     <row r="43" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4043,10 +4154,12 @@
       <c r="X44" s="12"/>
       <c r="Y44" s="12"/>
       <c r="Z44" s="12"/>
-      <c r="AA44" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB44" s="12"/>
+      <c r="AA44" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB44" s="46" t="s">
+        <v>150</v>
+      </c>
       <c r="AC44" s="12"/>
       <c r="AD44" s="12"/>
       <c r="AE44" s="12"/>
@@ -4058,23 +4171,19 @@
     </row>
     <row r="45" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B45" s="14"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="M45" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="T45" s="36" t="s">
+      <c r="M45" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="T45" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA45" s="34" t="s">
         <v>144</v>
-      </c>
-      <c r="AA45" s="36" t="s">
-        <v>145</v>
       </c>
       <c r="AJ45" s="15"/>
     </row>
     <row r="46" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B46" s="14"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
       <c r="AA46" s="16"/>
       <c r="AJ46" s="15"/>
     </row>
@@ -4144,25 +4253,21 @@
       <c r="Y49" s="12"/>
       <c r="Z49" s="12"/>
       <c r="AA49" s="12"/>
-      <c r="AB49" s="12"/>
+      <c r="AB49" s="46" t="s">
+        <v>148</v>
+      </c>
       <c r="AC49" s="13"/>
     </row>
     <row r="50" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B50" s="14"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
       <c r="AC50" s="15"/>
     </row>
     <row r="51" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B51" s="14"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
       <c r="AC51" s="15"/>
     </row>
     <row r="52" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B52" s="14"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
       <c r="AC52" s="15"/>
     </row>
     <row r="53" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4204,18 +4309,12 @@
     </row>
     <row r="56" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B56" s="14"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
     </row>
     <row r="57" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B57" s="14"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
     </row>
     <row r="58" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B58" s="14"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
     </row>
     <row r="59" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B59" s="17"/>
@@ -4263,457 +4362,409 @@
     </row>
     <row r="62" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B62" s="14"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="47"/>
       <c r="AJ62" s="15"/>
     </row>
     <row r="63" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="14"/>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="34"/>
-      <c r="M63" s="34"/>
-      <c r="N63" s="34"/>
-      <c r="O63" s="34"/>
-      <c r="P63" s="34"/>
-      <c r="Q63" s="34"/>
-      <c r="R63" s="34"/>
-      <c r="S63" s="34"/>
-      <c r="T63" s="34"/>
-      <c r="U63" s="34"/>
-      <c r="V63" s="34"/>
-      <c r="W63" s="34"/>
-      <c r="X63" s="34"/>
-      <c r="Y63" s="34"/>
-      <c r="Z63" s="34"/>
-      <c r="AA63" s="34"/>
-      <c r="AB63" s="34"/>
-      <c r="AC63" s="34"/>
-      <c r="AD63" s="34"/>
-      <c r="AE63" s="34"/>
-      <c r="AF63" s="34"/>
-      <c r="AG63" s="34"/>
-      <c r="AH63" s="34"/>
-      <c r="AI63" s="34"/>
-      <c r="AJ63" s="35"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="43"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="43"/>
+      <c r="K63" s="43"/>
+      <c r="L63" s="43"/>
+      <c r="M63" s="43"/>
+      <c r="N63" s="43"/>
+      <c r="O63" s="43"/>
+      <c r="P63" s="43"/>
+      <c r="Q63" s="43"/>
+      <c r="R63" s="43"/>
+      <c r="S63" s="43"/>
+      <c r="T63" s="43"/>
+      <c r="U63" s="43"/>
+      <c r="V63" s="43"/>
+      <c r="W63" s="43"/>
+      <c r="X63" s="43"/>
+      <c r="Y63" s="43"/>
+      <c r="Z63" s="43"/>
+      <c r="AA63" s="43"/>
+      <c r="AB63" s="43"/>
+      <c r="AC63" s="43"/>
+      <c r="AD63" s="43"/>
+      <c r="AE63" s="43"/>
+      <c r="AF63" s="43"/>
+      <c r="AG63" s="43"/>
+      <c r="AH63" s="43"/>
+      <c r="AI63" s="43"/>
+      <c r="AJ63" s="44"/>
     </row>
     <row r="64" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="14"/>
-      <c r="C64" s="47"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="34"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="34"/>
-      <c r="L64" s="34"/>
-      <c r="M64" s="34"/>
-      <c r="N64" s="34"/>
-      <c r="O64" s="34"/>
-      <c r="P64" s="34"/>
-      <c r="Q64" s="34"/>
-      <c r="R64" s="34"/>
-      <c r="S64" s="34"/>
-      <c r="T64" s="34"/>
-      <c r="U64" s="34"/>
-      <c r="V64" s="34"/>
-      <c r="W64" s="34"/>
-      <c r="X64" s="34"/>
-      <c r="Y64" s="34"/>
-      <c r="Z64" s="34"/>
-      <c r="AA64" s="34"/>
-      <c r="AB64" s="34"/>
-      <c r="AC64" s="34"/>
-      <c r="AD64" s="34"/>
-      <c r="AE64" s="34"/>
-      <c r="AF64" s="34"/>
-      <c r="AG64" s="34"/>
-      <c r="AH64" s="34"/>
-      <c r="AI64" s="34"/>
-      <c r="AJ64" s="35"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="43"/>
+      <c r="I64" s="43"/>
+      <c r="J64" s="43"/>
+      <c r="K64" s="43"/>
+      <c r="L64" s="43"/>
+      <c r="M64" s="43"/>
+      <c r="N64" s="43"/>
+      <c r="O64" s="43"/>
+      <c r="P64" s="43"/>
+      <c r="Q64" s="43"/>
+      <c r="R64" s="43"/>
+      <c r="S64" s="43"/>
+      <c r="T64" s="43"/>
+      <c r="U64" s="43"/>
+      <c r="V64" s="43"/>
+      <c r="W64" s="43"/>
+      <c r="X64" s="43"/>
+      <c r="Y64" s="43"/>
+      <c r="Z64" s="43"/>
+      <c r="AA64" s="43"/>
+      <c r="AB64" s="43"/>
+      <c r="AC64" s="43"/>
+      <c r="AD64" s="43"/>
+      <c r="AE64" s="43"/>
+      <c r="AF64" s="43"/>
+      <c r="AG64" s="43"/>
+      <c r="AH64" s="43"/>
+      <c r="AI64" s="43"/>
+      <c r="AJ64" s="44"/>
     </row>
     <row r="65" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="14"/>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="34"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="34"/>
-      <c r="L65" s="34"/>
-      <c r="M65" s="34"/>
-      <c r="N65" s="34"/>
-      <c r="O65" s="34"/>
-      <c r="P65" s="34"/>
-      <c r="Q65" s="34"/>
-      <c r="R65" s="34"/>
-      <c r="S65" s="34"/>
-      <c r="T65" s="34"/>
-      <c r="U65" s="34"/>
-      <c r="V65" s="34"/>
-      <c r="W65" s="34"/>
-      <c r="X65" s="34"/>
-      <c r="Y65" s="34"/>
-      <c r="Z65" s="34"/>
-      <c r="AA65" s="34"/>
-      <c r="AB65" s="34"/>
-      <c r="AC65" s="34"/>
-      <c r="AD65" s="34"/>
-      <c r="AE65" s="34"/>
-      <c r="AF65" s="34"/>
-      <c r="AG65" s="34"/>
-      <c r="AH65" s="34"/>
-      <c r="AI65" s="34"/>
-      <c r="AJ65" s="35"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="43"/>
+      <c r="L65" s="43"/>
+      <c r="M65" s="43"/>
+      <c r="N65" s="43"/>
+      <c r="O65" s="43"/>
+      <c r="P65" s="43"/>
+      <c r="Q65" s="43"/>
+      <c r="R65" s="43"/>
+      <c r="S65" s="43"/>
+      <c r="T65" s="43"/>
+      <c r="U65" s="43"/>
+      <c r="V65" s="43"/>
+      <c r="W65" s="43"/>
+      <c r="X65" s="43"/>
+      <c r="Y65" s="43"/>
+      <c r="Z65" s="43"/>
+      <c r="AA65" s="43"/>
+      <c r="AB65" s="43"/>
+      <c r="AC65" s="43"/>
+      <c r="AD65" s="43"/>
+      <c r="AE65" s="43"/>
+      <c r="AF65" s="43"/>
+      <c r="AG65" s="43"/>
+      <c r="AH65" s="43"/>
+      <c r="AI65" s="43"/>
+      <c r="AJ65" s="44"/>
     </row>
     <row r="66" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="14"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="34"/>
-      <c r="M66" s="34"/>
-      <c r="N66" s="34"/>
-      <c r="O66" s="34"/>
-      <c r="P66" s="34"/>
-      <c r="Q66" s="34"/>
-      <c r="R66" s="34"/>
-      <c r="S66" s="34"/>
-      <c r="T66" s="34"/>
-      <c r="U66" s="34"/>
-      <c r="V66" s="34"/>
-      <c r="W66" s="34"/>
-      <c r="X66" s="34"/>
-      <c r="Y66" s="34"/>
-      <c r="Z66" s="34"/>
-      <c r="AA66" s="34"/>
-      <c r="AB66" s="34"/>
-      <c r="AC66" s="34"/>
-      <c r="AD66" s="34"/>
-      <c r="AE66" s="34"/>
-      <c r="AF66" s="34"/>
-      <c r="AG66" s="34"/>
-      <c r="AH66" s="34"/>
-      <c r="AI66" s="34"/>
-      <c r="AJ66" s="35"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
+      <c r="K66" s="43"/>
+      <c r="L66" s="43"/>
+      <c r="M66" s="43"/>
+      <c r="N66" s="43"/>
+      <c r="O66" s="43"/>
+      <c r="P66" s="43"/>
+      <c r="Q66" s="43"/>
+      <c r="R66" s="43"/>
+      <c r="S66" s="43"/>
+      <c r="T66" s="43"/>
+      <c r="U66" s="43"/>
+      <c r="V66" s="43"/>
+      <c r="W66" s="43"/>
+      <c r="X66" s="43"/>
+      <c r="Y66" s="43"/>
+      <c r="Z66" s="43"/>
+      <c r="AA66" s="43"/>
+      <c r="AB66" s="43"/>
+      <c r="AC66" s="43"/>
+      <c r="AD66" s="43"/>
+      <c r="AE66" s="43"/>
+      <c r="AF66" s="43"/>
+      <c r="AG66" s="43"/>
+      <c r="AH66" s="43"/>
+      <c r="AI66" s="43"/>
+      <c r="AJ66" s="44"/>
     </row>
     <row r="67" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="14"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="34"/>
-      <c r="H67" s="34"/>
-      <c r="I67" s="34"/>
-      <c r="J67" s="34"/>
-      <c r="K67" s="34"/>
-      <c r="L67" s="34"/>
-      <c r="M67" s="34"/>
-      <c r="N67" s="34"/>
-      <c r="O67" s="34"/>
-      <c r="P67" s="34"/>
-      <c r="Q67" s="34"/>
-      <c r="R67" s="34"/>
-      <c r="S67" s="34"/>
-      <c r="T67" s="34"/>
-      <c r="U67" s="34"/>
-      <c r="V67" s="34"/>
-      <c r="W67" s="34"/>
-      <c r="X67" s="34"/>
-      <c r="Y67" s="34"/>
-      <c r="Z67" s="34"/>
-      <c r="AA67" s="34"/>
-      <c r="AB67" s="34"/>
-      <c r="AC67" s="34"/>
-      <c r="AD67" s="34"/>
-      <c r="AE67" s="34"/>
-      <c r="AF67" s="34"/>
-      <c r="AG67" s="34"/>
-      <c r="AH67" s="34"/>
-      <c r="AI67" s="34"/>
-      <c r="AJ67" s="35"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="43"/>
+      <c r="M67" s="43"/>
+      <c r="N67" s="43"/>
+      <c r="O67" s="43"/>
+      <c r="P67" s="43"/>
+      <c r="Q67" s="43"/>
+      <c r="R67" s="43"/>
+      <c r="S67" s="43"/>
+      <c r="T67" s="43"/>
+      <c r="U67" s="43"/>
+      <c r="V67" s="43"/>
+      <c r="W67" s="43"/>
+      <c r="X67" s="43"/>
+      <c r="Y67" s="43"/>
+      <c r="Z67" s="43"/>
+      <c r="AA67" s="43"/>
+      <c r="AB67" s="43"/>
+      <c r="AC67" s="43"/>
+      <c r="AD67" s="43"/>
+      <c r="AE67" s="43"/>
+      <c r="AF67" s="43"/>
+      <c r="AG67" s="43"/>
+      <c r="AH67" s="43"/>
+      <c r="AI67" s="43"/>
+      <c r="AJ67" s="44"/>
     </row>
     <row r="68" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="14"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="34"/>
-      <c r="I68" s="34"/>
-      <c r="J68" s="34"/>
-      <c r="K68" s="34"/>
-      <c r="L68" s="34"/>
-      <c r="M68" s="34"/>
-      <c r="N68" s="34"/>
-      <c r="O68" s="34"/>
-      <c r="P68" s="34"/>
-      <c r="Q68" s="34"/>
-      <c r="R68" s="34"/>
-      <c r="S68" s="34"/>
-      <c r="T68" s="34"/>
-      <c r="U68" s="34"/>
-      <c r="V68" s="34"/>
-      <c r="W68" s="34"/>
-      <c r="X68" s="34"/>
-      <c r="Y68" s="34"/>
-      <c r="Z68" s="34"/>
-      <c r="AA68" s="34"/>
-      <c r="AB68" s="34"/>
-      <c r="AC68" s="34"/>
-      <c r="AD68" s="34"/>
-      <c r="AE68" s="34"/>
-      <c r="AF68" s="34"/>
-      <c r="AG68" s="34"/>
-      <c r="AH68" s="34"/>
-      <c r="AI68" s="34"/>
-      <c r="AJ68" s="35"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="43"/>
+      <c r="M68" s="43"/>
+      <c r="N68" s="43"/>
+      <c r="O68" s="43"/>
+      <c r="P68" s="43"/>
+      <c r="Q68" s="43"/>
+      <c r="R68" s="43"/>
+      <c r="S68" s="43"/>
+      <c r="T68" s="43"/>
+      <c r="U68" s="43"/>
+      <c r="V68" s="43"/>
+      <c r="W68" s="43"/>
+      <c r="X68" s="43"/>
+      <c r="Y68" s="43"/>
+      <c r="Z68" s="43"/>
+      <c r="AA68" s="43"/>
+      <c r="AB68" s="43"/>
+      <c r="AC68" s="43"/>
+      <c r="AD68" s="43"/>
+      <c r="AE68" s="43"/>
+      <c r="AF68" s="43"/>
+      <c r="AG68" s="43"/>
+      <c r="AH68" s="43"/>
+      <c r="AI68" s="43"/>
+      <c r="AJ68" s="44"/>
     </row>
     <row r="69" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="14"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="34"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="34"/>
-      <c r="L69" s="34"/>
-      <c r="M69" s="34"/>
-      <c r="N69" s="34"/>
-      <c r="O69" s="34"/>
-      <c r="P69" s="34"/>
-      <c r="Q69" s="34"/>
-      <c r="R69" s="34"/>
-      <c r="S69" s="34"/>
-      <c r="T69" s="34"/>
-      <c r="U69" s="34"/>
-      <c r="V69" s="34"/>
-      <c r="W69" s="34"/>
-      <c r="X69" s="34"/>
-      <c r="Y69" s="34"/>
-      <c r="Z69" s="34"/>
-      <c r="AA69" s="34"/>
-      <c r="AB69" s="34"/>
-      <c r="AC69" s="34"/>
-      <c r="AD69" s="34"/>
-      <c r="AE69" s="34"/>
-      <c r="AF69" s="34"/>
-      <c r="AG69" s="34"/>
-      <c r="AH69" s="34"/>
-      <c r="AI69" s="34"/>
-      <c r="AJ69" s="35"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="43"/>
+      <c r="I69" s="43"/>
+      <c r="J69" s="43"/>
+      <c r="K69" s="43"/>
+      <c r="L69" s="43"/>
+      <c r="M69" s="43"/>
+      <c r="N69" s="43"/>
+      <c r="O69" s="43"/>
+      <c r="P69" s="43"/>
+      <c r="Q69" s="43"/>
+      <c r="R69" s="43"/>
+      <c r="S69" s="43"/>
+      <c r="T69" s="43"/>
+      <c r="U69" s="43"/>
+      <c r="V69" s="43"/>
+      <c r="W69" s="43"/>
+      <c r="X69" s="43"/>
+      <c r="Y69" s="43"/>
+      <c r="Z69" s="43"/>
+      <c r="AA69" s="43"/>
+      <c r="AB69" s="43"/>
+      <c r="AC69" s="43"/>
+      <c r="AD69" s="43"/>
+      <c r="AE69" s="43"/>
+      <c r="AF69" s="43"/>
+      <c r="AG69" s="43"/>
+      <c r="AH69" s="43"/>
+      <c r="AI69" s="43"/>
+      <c r="AJ69" s="44"/>
     </row>
     <row r="70" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="14"/>
-      <c r="C70" s="47"/>
-      <c r="D70" s="47"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="34"/>
-      <c r="I70" s="34"/>
-      <c r="J70" s="34"/>
-      <c r="K70" s="34"/>
-      <c r="L70" s="34"/>
-      <c r="M70" s="34"/>
-      <c r="N70" s="34"/>
-      <c r="O70" s="34"/>
-      <c r="P70" s="34"/>
-      <c r="Q70" s="34"/>
-      <c r="R70" s="34"/>
-      <c r="S70" s="34"/>
-      <c r="T70" s="34"/>
-      <c r="U70" s="34"/>
-      <c r="V70" s="34"/>
-      <c r="W70" s="34"/>
-      <c r="X70" s="34"/>
-      <c r="Y70" s="34"/>
-      <c r="Z70" s="34"/>
-      <c r="AA70" s="34"/>
-      <c r="AB70" s="34"/>
-      <c r="AC70" s="34"/>
-      <c r="AD70" s="34"/>
-      <c r="AE70" s="34"/>
-      <c r="AF70" s="34"/>
-      <c r="AG70" s="34"/>
-      <c r="AH70" s="34"/>
-      <c r="AI70" s="34"/>
-      <c r="AJ70" s="35"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="43"/>
+      <c r="J70" s="43"/>
+      <c r="K70" s="43"/>
+      <c r="L70" s="43"/>
+      <c r="M70" s="43"/>
+      <c r="N70" s="43"/>
+      <c r="O70" s="43"/>
+      <c r="P70" s="43"/>
+      <c r="Q70" s="43"/>
+      <c r="R70" s="43"/>
+      <c r="S70" s="43"/>
+      <c r="T70" s="43"/>
+      <c r="U70" s="43"/>
+      <c r="V70" s="43"/>
+      <c r="W70" s="43"/>
+      <c r="X70" s="43"/>
+      <c r="Y70" s="43"/>
+      <c r="Z70" s="43"/>
+      <c r="AA70" s="43"/>
+      <c r="AB70" s="43"/>
+      <c r="AC70" s="43"/>
+      <c r="AD70" s="43"/>
+      <c r="AE70" s="43"/>
+      <c r="AF70" s="43"/>
+      <c r="AG70" s="43"/>
+      <c r="AH70" s="43"/>
+      <c r="AI70" s="43"/>
+      <c r="AJ70" s="44"/>
     </row>
     <row r="71" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="14"/>
-      <c r="C71" s="47"/>
-      <c r="D71" s="47"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="34"/>
-      <c r="K71" s="34"/>
-      <c r="L71" s="34"/>
-      <c r="M71" s="34"/>
-      <c r="N71" s="34"/>
-      <c r="O71" s="34"/>
-      <c r="P71" s="34"/>
-      <c r="Q71" s="34"/>
-      <c r="R71" s="34"/>
-      <c r="S71" s="34"/>
-      <c r="T71" s="34"/>
-      <c r="U71" s="34"/>
-      <c r="V71" s="34"/>
-      <c r="W71" s="34"/>
-      <c r="X71" s="34"/>
-      <c r="Y71" s="34"/>
-      <c r="Z71" s="34"/>
-      <c r="AA71" s="34"/>
-      <c r="AB71" s="34"/>
-      <c r="AC71" s="34"/>
-      <c r="AD71" s="34"/>
-      <c r="AE71" s="34"/>
-      <c r="AF71" s="34"/>
-      <c r="AG71" s="34"/>
-      <c r="AH71" s="34"/>
-      <c r="AI71" s="34"/>
-      <c r="AJ71" s="35"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="43"/>
+      <c r="K71" s="43"/>
+      <c r="L71" s="43"/>
+      <c r="M71" s="43"/>
+      <c r="N71" s="43"/>
+      <c r="O71" s="43"/>
+      <c r="P71" s="43"/>
+      <c r="Q71" s="43"/>
+      <c r="R71" s="43"/>
+      <c r="S71" s="43"/>
+      <c r="T71" s="43"/>
+      <c r="U71" s="43"/>
+      <c r="V71" s="43"/>
+      <c r="W71" s="43"/>
+      <c r="X71" s="43"/>
+      <c r="Y71" s="43"/>
+      <c r="Z71" s="43"/>
+      <c r="AA71" s="43"/>
+      <c r="AB71" s="43"/>
+      <c r="AC71" s="43"/>
+      <c r="AD71" s="43"/>
+      <c r="AE71" s="43"/>
+      <c r="AF71" s="43"/>
+      <c r="AG71" s="43"/>
+      <c r="AH71" s="43"/>
+      <c r="AI71" s="43"/>
+      <c r="AJ71" s="44"/>
     </row>
     <row r="72" spans="2:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="14"/>
-      <c r="C72" s="47"/>
-      <c r="D72" s="47"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="34"/>
-      <c r="G72" s="34"/>
-      <c r="H72" s="34"/>
-      <c r="I72" s="34"/>
-      <c r="J72" s="34"/>
-      <c r="K72" s="34"/>
-      <c r="L72" s="34"/>
-      <c r="M72" s="34"/>
-      <c r="N72" s="34"/>
-      <c r="O72" s="34"/>
-      <c r="P72" s="34"/>
-      <c r="Q72" s="34"/>
-      <c r="R72" s="34"/>
-      <c r="S72" s="34"/>
-      <c r="T72" s="34"/>
-      <c r="U72" s="34"/>
-      <c r="V72" s="34"/>
-      <c r="W72" s="34"/>
-      <c r="X72" s="34"/>
-      <c r="Y72" s="34"/>
-      <c r="Z72" s="34"/>
-      <c r="AA72" s="34"/>
-      <c r="AB72" s="34"/>
-      <c r="AC72" s="34"/>
-      <c r="AD72" s="34"/>
-      <c r="AE72" s="34"/>
-      <c r="AF72" s="34"/>
-      <c r="AG72" s="34"/>
-      <c r="AH72" s="34"/>
-      <c r="AI72" s="34"/>
-      <c r="AJ72" s="35"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
+      <c r="G72" s="43"/>
+      <c r="H72" s="43"/>
+      <c r="I72" s="43"/>
+      <c r="J72" s="43"/>
+      <c r="K72" s="43"/>
+      <c r="L72" s="43"/>
+      <c r="M72" s="43"/>
+      <c r="N72" s="43"/>
+      <c r="O72" s="43"/>
+      <c r="P72" s="43"/>
+      <c r="Q72" s="43"/>
+      <c r="R72" s="43"/>
+      <c r="S72" s="43"/>
+      <c r="T72" s="43"/>
+      <c r="U72" s="43"/>
+      <c r="V72" s="43"/>
+      <c r="W72" s="43"/>
+      <c r="X72" s="43"/>
+      <c r="Y72" s="43"/>
+      <c r="Z72" s="43"/>
+      <c r="AA72" s="43"/>
+      <c r="AB72" s="43"/>
+      <c r="AC72" s="43"/>
+      <c r="AD72" s="43"/>
+      <c r="AE72" s="43"/>
+      <c r="AF72" s="43"/>
+      <c r="AG72" s="43"/>
+      <c r="AH72" s="43"/>
+      <c r="AI72" s="43"/>
+      <c r="AJ72" s="44"/>
     </row>
     <row r="73" spans="2:36" ht="15" x14ac:dyDescent="0.25">
       <c r="B73" s="14"/>
-      <c r="C73" s="47"/>
-      <c r="D73" s="47"/>
       <c r="U73" s="8"/>
       <c r="AJ73" s="15"/>
     </row>
     <row r="74" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B74" s="14"/>
-      <c r="C74" s="47"/>
-      <c r="D74" s="47"/>
       <c r="AJ74" s="15"/>
     </row>
     <row r="75" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B75" s="14"/>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
       <c r="AJ75" s="15"/>
     </row>
     <row r="76" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B76" s="14"/>
-      <c r="C76" s="47"/>
-      <c r="D76" s="47"/>
       <c r="AJ76" s="15"/>
     </row>
     <row r="77" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B77" s="14"/>
-      <c r="C77" s="47"/>
-      <c r="D77" s="47"/>
       <c r="AJ77" s="15"/>
     </row>
     <row r="78" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B78" s="14"/>
-      <c r="C78" s="47"/>
-      <c r="D78" s="47"/>
       <c r="AJ78" s="15"/>
     </row>
     <row r="79" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B79" s="14"/>
-      <c r="C79" s="47"/>
-      <c r="D79" s="47"/>
       <c r="AJ79" s="15"/>
     </row>
     <row r="80" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B80" s="14"/>
-      <c r="C80" s="47"/>
-      <c r="D80" s="47"/>
       <c r="AJ80" s="15"/>
     </row>
     <row r="81" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B81" s="14"/>
-      <c r="C81" s="47"/>
-      <c r="D81" s="47"/>
       <c r="AJ81" s="15"/>
     </row>
     <row r="82" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B82" s="14"/>
-      <c r="C82" s="47"/>
-      <c r="D82" s="47"/>
       <c r="AJ82" s="15"/>
     </row>
     <row r="83" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B83" s="14"/>
-      <c r="C83" s="47"/>
-      <c r="D83" s="47"/>
       <c r="AJ83" s="15"/>
     </row>
     <row r="84" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B84" s="14"/>
-      <c r="C84" s="47"/>
-      <c r="D84" s="47"/>
       <c r="AJ84" s="15"/>
     </row>
     <row r="85" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B85" s="14"/>
-      <c r="C85" s="47"/>
-      <c r="D85" s="47"/>
       <c r="AJ85" s="15"/>
     </row>
     <row r="86" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4777,384 +4828,389 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C442DB1-BE07-4099-BB67-A6E5D59E05D2}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="61.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="36"/>
+    <col min="1" max="1" width="61.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="C1" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="D1" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="36" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="34" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="B2" s="39">
+        <v>46296</v>
+      </c>
+      <c r="C2" s="40">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="D2" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="44">
-        <v>46296</v>
-      </c>
-      <c r="C2" s="45">
-        <v>2.7799999999999998E-2</v>
-      </c>
-      <c r="D2" s="36" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="34" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="B3" s="39">
+        <v>47392</v>
+      </c>
+      <c r="C3" s="40">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="D3" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="44">
-        <v>47392</v>
-      </c>
-      <c r="C3" s="45">
-        <v>2.9600000000000001E-2</v>
-      </c>
-      <c r="D3" s="36" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="34" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="B4" s="39">
+        <v>47635</v>
+      </c>
+      <c r="C4" s="40">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="44">
-        <v>47635</v>
-      </c>
-      <c r="C4" s="45">
-        <v>2.3900000000000001E-2</v>
-      </c>
-      <c r="D4" s="36" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="34" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="B5" s="39">
+        <v>54940</v>
+      </c>
+      <c r="C5" s="40">
+        <v>3.3300000000000003E-2</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="44">
-        <v>54940</v>
-      </c>
-      <c r="C5" s="45">
-        <v>3.3300000000000003E-2</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
+      <c r="B6" s="39">
+        <v>46539</v>
+      </c>
+      <c r="C6" s="40">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="D6" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="44">
-        <v>46539</v>
-      </c>
-      <c r="C6" s="45">
-        <v>4.0599999999999997E-2</v>
-      </c>
-      <c r="D6" s="36" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="34" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
+      <c r="B7" s="39">
+        <v>48366</v>
+      </c>
+      <c r="C7" s="40">
+        <v>4.53E-2</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="44">
-        <v>48366</v>
-      </c>
-      <c r="C7" s="45">
-        <v>4.53E-2</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
+      <c r="B8" s="39">
+        <v>55671</v>
+      </c>
+      <c r="C8" s="40">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="44">
-        <v>55671</v>
-      </c>
-      <c r="C8" s="45">
-        <v>5.1400000000000001E-2</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
+      <c r="B9" s="39">
+        <v>59323</v>
+      </c>
+      <c r="C9" s="40">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="44">
-        <v>59323</v>
-      </c>
-      <c r="C9" s="45">
-        <v>5.3400000000000003E-2</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
+      <c r="B10" s="39">
+        <v>46182</v>
+      </c>
+      <c r="C10" s="40">
+        <v>1.06E-2</v>
+      </c>
+      <c r="D10" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="44">
-        <v>46182</v>
-      </c>
-      <c r="C10" s="45">
-        <v>1.06E-2</v>
-      </c>
-      <c r="D10" s="36" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="34" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
+      <c r="B11" s="39">
+        <v>46913</v>
+      </c>
+      <c r="C11" s="40">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="D11" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="44">
-        <v>46913</v>
-      </c>
-      <c r="C11" s="45">
-        <v>1.3100000000000001E-2</v>
-      </c>
-      <c r="D11" s="36" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="34" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
+      <c r="B12" s="39">
+        <v>49096</v>
+      </c>
+      <c r="C12" s="40">
+        <v>5.3499999999999999E-2</v>
+      </c>
+      <c r="D12" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="44">
-        <v>49096</v>
-      </c>
-      <c r="C12" s="45">
-        <v>5.3499999999999999E-2</v>
-      </c>
-      <c r="D12" s="36" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="34" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
+      <c r="B13" s="39">
+        <v>56401</v>
+      </c>
+      <c r="C13" s="40">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="D13" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="44">
-        <v>56401</v>
-      </c>
-      <c r="C13" s="45">
-        <v>5.6599999999999998E-2</v>
-      </c>
-      <c r="D13" s="36" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="34" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
+      <c r="B14" s="39">
+        <v>46818</v>
+      </c>
+      <c r="C14" s="40">
+        <v>5.21E-2</v>
+      </c>
+      <c r="D14" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="44">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="39">
         <v>46818</v>
       </c>
-      <c r="C14" s="45">
-        <v>5.21E-2</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
+      <c r="C15" s="40">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="44">
-        <v>46818</v>
-      </c>
-      <c r="C15" s="45">
-        <v>4.6600000000000003E-2</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
+      <c r="B16" s="39">
+        <v>49400</v>
+      </c>
+      <c r="C16" s="40">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D16" s="34" t="s">
         <v>106</v>
-      </c>
-      <c r="B16" s="44">
-        <v>49400</v>
-      </c>
-      <c r="C16" s="45">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="34" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
+      <c r="B19" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="C19" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="36" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="34" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
+      <c r="B20" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="C20" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="36" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="34" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="36" t="s">
+      <c r="C21" s="34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" s="36" t="s">
+      <c r="B22" s="34" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
+      <c r="C22" s="34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="B22" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="36" t="s">
+      <c r="B25" s="34" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="36" t="s">
+      <c r="C25" s="34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B26" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="36" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="B26" s="36" t="s">
+      <c r="C26" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="36" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="34" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
+      <c r="B27" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="C27" s="34" t="s">
         <v>130</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="8" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="34" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="36" t="s">
+      <c r="B29" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="C29" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="36" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="34" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="36" t="s">
+      <c r="B30" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="B30" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>139</v>
+      <c r="C30" s="34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="45" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -5326,9 +5382,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5476,26 +5535,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D65B96D-4012-4621-9665-52F685045C2D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5519,9 +5567,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D65B96D-4012-4621-9665-52F685045C2D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>